--- a/test-artifacts/url-reports/validated-slugs -live- launchday.xlsx
+++ b/test-artifacts/url-reports/validated-slugs -live- launchday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purva/Desktop/SUNY Geneseo Playwright/test-artifacts/url-reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CA749C5-A191-E74D-8287-9BCA1C5C8FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BFB842-A3EA-534B-9E72-3E8354DC69B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ValidatedSlugs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ValidatedSlugs!$D$1:$D$592</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ValidatedSlugs!$G$1:$G$592</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1940,7 +1940,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1948,13 +1948,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1966,13 +1980,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2314,12 +2333,12 @@
   <dimension ref="A1:I592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J587" sqref="J587"/>
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.1640625" customWidth="1"/>
+    <col min="2" max="2" width="103.1640625" customWidth="1"/>
     <col min="3" max="3" width="85.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2378,14 +2397,14 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="b">
@@ -2404,7 +2423,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2527,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3730,7 +3749,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3756,11 +3775,11 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C56" t="s">
@@ -3860,7 +3879,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3912,7 +3931,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -4462,7 +4481,7 @@
       <c r="A83" t="s">
         <v>9</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C83" t="s">
@@ -6594,7 +6613,7 @@
       <c r="A165" t="s">
         <v>9</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C165" t="s">
@@ -7400,7 +7419,7 @@
       <c r="A196" t="s">
         <v>9</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C196" t="s">
@@ -7890,29 +7909,29 @@
         <v>404</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>9</v>
-      </c>
-      <c r="B215" t="s">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D215" t="b">
-        <v>0</v>
-      </c>
-      <c r="E215" t="s">
+      <c r="D215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F215" t="b">
-        <v>1</v>
-      </c>
-      <c r="G215" t="s">
+      <c r="F215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="2">
         <v>200</v>
       </c>
     </row>
@@ -8414,7 +8433,7 @@
       <c r="A235" t="s">
         <v>9</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C235" t="s">
@@ -10074,7 +10093,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -10234,7 +10253,7 @@
       <c r="A305" t="s">
         <v>9</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C305" t="s">
@@ -14858,7 +14877,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>9</v>
       </c>
@@ -16600,29 +16619,29 @@
         <v>404</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
-        <v>9</v>
-      </c>
-      <c r="B550" t="s">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A550" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B550" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C550" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D550" t="b">
-        <v>0</v>
-      </c>
-      <c r="E550" t="s">
+      <c r="D550" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E550" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="F550" t="b">
-        <v>1</v>
-      </c>
-      <c r="G550" t="s">
+      <c r="F550" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G550" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H550">
+      <c r="H550" s="2">
         <v>200</v>
       </c>
     </row>
@@ -17719,16 +17738,29 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D592" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="G1:G592" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="TRUE"/>
+        <filter val="ok"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{E229552D-2DA0-5F47-897B-2BFCA6B567B4}"/>
+    <hyperlink ref="B80" r:id="rId2" xr:uid="{4C105BB0-0A8A-214E-BEF9-93817ADDDD1C}"/>
+    <hyperlink ref="B83" r:id="rId3" xr:uid="{0811F926-A987-B742-9EB6-564B9FBCB7DC}"/>
+    <hyperlink ref="B165" r:id="rId4" xr:uid="{A2FCCCEC-DA05-2F43-9E03-DFE2A2C63A95}"/>
+    <hyperlink ref="B196" r:id="rId5" xr:uid="{9B09CEA6-1358-B24D-925E-1731EDF95E9C}"/>
+    <hyperlink ref="B215" r:id="rId6" xr:uid="{D8CF4846-CD18-1547-BED8-1E46E32E3E7D}"/>
+    <hyperlink ref="B235" r:id="rId7" xr:uid="{26696EF3-0F7A-704A-AE6A-BDEB5FF5666B}"/>
+    <hyperlink ref="B305" r:id="rId8" xr:uid="{56FF2AC6-65FC-1343-B70B-5A191BE19017}"/>
+    <hyperlink ref="B550" r:id="rId9" xr:uid="{13200586-444E-8543-8ED9-7CEA9CD6315D}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{4CB719C6-4ECA-9B48-A063-2D7FB72FCD87}"/>
+    <hyperlink ref="B56" r:id="rId11" xr:uid="{A5FC03C1-809F-0344-8978-3D21874C60FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I592" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I2 A4:I55 A3 D3:I3 A81:I82 A80 C80:I80 A84:I164 A83 C83:I83 A166:I195 A165 C165:I165 A197:I214 A196 C196:I196 A216:I234 A215 C215:I215 A236:I304 A235 C235:I235 A306:I549 A305 C305:I305 A551:I592 A550 C550:I550 A57:I79 A56 C56:I56" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>